--- a/biology/Botanique/Temecula_Valley/Temecula_Valley.xlsx
+++ b/biology/Botanique/Temecula_Valley/Temecula_Valley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Temecula Valley est une région viticole américaine (American Viticultural Area, ou AVA) reconnue par l'Alcohol and Tobacco Tax and Trade Bureau sur la commune de Temecula dans le comté de Riverside en Californie.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La viticulture à Temecula Valley est relativement récente.
 L'introduction du vin en Californie est liée à la colonisation et l'évangélisation par les dominicains, les jésuites et les franciscains espagnols au XVIIIe siècle. Les missions espagnoles de Californie sont à l'origine des premiers vignobles de la région. Ainsi au début du XIXe siècle pendant que la population se concentrait sur le centre nord de la Californie, la viticulture prédominait dans le sud.  Après la guerre américano-mexicaine de 1847 la viticulture est pratiquement abandonnée.
@@ -548,7 +562,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Temecula Valley est située au sud-est de Los Angeles à 35 km de l'océan Pacifique et couvre une superficie de 133,5 km2 à l'est de la ville de Temecula, le long de la Rancho California Road. Les vignobles se trouvent sur un haut plateau au sol aride à une altitude entre 426 et 488 mètres.
 </t>
@@ -579,7 +595,9 @@
           <t>Climat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le secteur est séparé de l'océan Pacifique par une chaine montagneuse entrecoupée de canyons qui permettent à l'air marin de modérer le climat désertique donnant des nuits relativement fraiches et des journées ensoleillées plutôt chaude. Des nappes de brumes matinales sont fréquentes avec néanmoins peu de précipitations.
 </t>
@@ -610,7 +628,9 @@
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La viticulture à Temecula Valley produit surtout des vins de cépage. En plus du zinfandel californien un grand nombre de cépages européens sont représentés avec une prédilection pour les blancs : chardonnay, sauvignon blanc, chenin blanc, riesling et viognier. La plupart des producteurs ont adopté la vinification et l'élevage sous bois.
 </t>
@@ -641,7 +661,9 @@
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Barbara Birnbaum &amp; Kerry Cato, Geology and Enology of the Temecula Valley, San Diego Association of Geologists, San Diego, 2001  (ISBN 0916251551)
 Gia Danson-Lucy, Temecula Wine Country: The Undiscovered Jewel Of Southern California, Vista Pacifica Publishing, San Clemente, 2003  (ISBN 0967945216)
